--- a/data/trans_bre/P12_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.924318949574523</v>
+        <v>6.599975542391756</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.134636818583295</v>
+        <v>4.199447289616649</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.097907251418978</v>
+        <v>5.326202901549317</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.786877327719139</v>
+        <v>2.930647162697499</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.200364496384748</v>
+        <v>0.200214362309648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1378343529859411</v>
+        <v>0.1441683232227519</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.155774772368246</v>
+        <v>0.1649367310230486</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.09045312686356435</v>
+        <v>0.09169973310180596</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.9004454472519</v>
+        <v>14.64186314290152</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.04551650423705</v>
+        <v>11.88992043928858</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.1683722075227</v>
+        <v>14.13774452489284</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.89916686800621</v>
+        <v>11.39031428850735</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5129971350080791</v>
+        <v>0.5168316610853297</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4685012806025024</v>
+        <v>0.4815521473337601</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5438671929252876</v>
+        <v>0.5368239424291342</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4895243435416708</v>
+        <v>0.4680528858858859</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.676959165483678</v>
+        <v>4.731533930202491</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.13082085498737</v>
+        <v>4.164510375169397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.463228336888307</v>
+        <v>2.380608677049337</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.108267346071258</v>
+        <v>3.963870066882421</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3021241011157434</v>
+        <v>0.314115757261789</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2990990903136161</v>
+        <v>0.2950959559063371</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1985630613544278</v>
+        <v>0.1835311826260895</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2621658347793197</v>
+        <v>0.2527803872660783</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.31428069477231</v>
+        <v>9.966620244442067</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.368729676242488</v>
+        <v>9.201003364906761</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.949350783708448</v>
+        <v>6.926417967478309</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.426848143820706</v>
+        <v>8.212207396962167</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8099311102247478</v>
+        <v>0.793926192275632</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7775248761151055</v>
+        <v>0.7728976167574194</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6477409682947309</v>
+        <v>0.6427814156938874</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6456143083342717</v>
+        <v>0.6231590953582037</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.945072653287101</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.400615077168509</v>
+        <v>3.400615077168512</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6030579424152386</v>
@@ -849,7 +849,7 @@
         <v>0.253292255834273</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2058262610030296</v>
+        <v>0.2058262610030298</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.967507769484723</v>
+        <v>4.025748297581713</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.681699627973031</v>
+        <v>-1.612714684537289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.316626539210163</v>
+        <v>-1.172168575676627</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4487429499803096</v>
+        <v>-0.5894491470736443</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2110288535937787</v>
+        <v>0.2108027871450737</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1102202961795019</v>
+        <v>-0.1036225591912685</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1061468136570919</v>
+        <v>-0.09585365069164681</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.02249144020210718</v>
+        <v>-0.02970164955166286</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.71971194967741</v>
+        <v>14.65824772326414</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.909645226867151</v>
+        <v>8.930316027640245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.143961010518852</v>
+        <v>7.4208439155708</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.335476448238351</v>
+        <v>7.310126189877177</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.110842106148708</v>
+        <v>1.116320327272119</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.670658138197393</v>
+        <v>0.8121414394160426</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7343368840278477</v>
+        <v>0.7528750861004946</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.515461245167129</v>
+        <v>0.5030765544366969</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.976775313950836</v>
+        <v>8.25893953820545</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.234672548174085</v>
+        <v>6.242160704353675</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.737079337294062</v>
+        <v>4.564760444691578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.933900278650716</v>
+        <v>4.895354241998742</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3892414892627907</v>
+        <v>0.392773752342283</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3432644141724424</v>
+        <v>0.3385718416967504</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2826203319125531</v>
+        <v>0.2755820101322707</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2663227203706403</v>
+        <v>0.2732591051914669</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.34138038979451</v>
+        <v>12.39400499031741</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.1470547805644</v>
+        <v>10.09806485462123</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.614712469260603</v>
+        <v>8.574338758977525</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.302564261875578</v>
+        <v>8.358779151910463</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6777110904244519</v>
+        <v>0.6633609883055446</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6253572311154583</v>
+        <v>0.6217419871472054</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5867339877938411</v>
+        <v>0.5802549278156639</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5206721565031084</v>
+        <v>0.5263636095190282</v>
       </c>
     </row>
     <row r="16">
